--- a/biology/Médecine/Alligation/Alligation.xlsx
+++ b/biology/Médecine/Alligation/Alligation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alligation est un type de calcul pouvant entre autres être utilisé en pharmacie. Il existe plusieurs types de calculs pharmaceutiques dont l'alligation médiale et l'alligation alterne. 
 </t>
@@ -511,10 +523,12 @@
           <t>Alligation médiale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alligation médiale permet de calculer la concentration finale lors d'un mélange de produits de concentrations différentes. Elle est utilisée, par exemple, si l'on dispose de bouteilles d'alcool à des concentrations différentes, afin de connaître la concentration finale lorsque le contenu de chacune des bouteilles sera mélangé.
-Certains utilisent à tort le terme "alligation médicale". Il s'agit de l'alligation mediale et non médicale[1].
+Certains utilisent à tort le terme "alligation médicale". Il s'agit de l'alligation mediale et non médicale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Alligation alterne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alligation alterne permet de calculer les quantités d'ingrédients requises pour obtenir un produit final à une concentration désirée. Elle est utilisée, par exemple, si l'on doit préparer un produit, tel qu'une crème, à une certaine concentration, mais qu'on ne dispose que de cette même crème à une concentration plus élevée et à une concentration moins élevée que celle nécessaire. L'alligation alterne permet donc de trouver la quantité nécessaire de chacune d'elles afin d'obtenir le produit fini à la concentration désirée.
 </t>
